--- a/assets/0_MD_Instruction Files/List of graphic materials.xlsx
+++ b/assets/0_MD_Instruction Files/List of graphic materials.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+  <si>
+    <t>Priority Order</t>
+  </si>
   <si>
     <t xml:space="preserve">Category </t>
   </si>
   <si>
-    <t>Graphs</t>
+    <t>Graphics</t>
   </si>
   <si>
     <t>PDF</t>
@@ -41,6 +44,9 @@
     <t>Text</t>
   </si>
   <si>
+    <t>Markdown Version</t>
+  </si>
+  <si>
     <t>Templates</t>
   </si>
   <si>
@@ -53,61 +59,68 @@
     <t>Selected Photos put into folder</t>
   </si>
   <si>
-    <t>Video edited together</t>
+    <t>Video Edited and Exported</t>
+  </si>
+  <si>
+    <t>Main Promo Video</t>
+  </si>
+  <si>
+    <t>Yes, Auri has taken a fair bit of various movements with the shields, and we have some video and photos of antiopi wearing and doffing and donning the shield</t>
+  </si>
+  <si>
+    <t>yes auri put into Publicity videos folder</t>
+  </si>
+  <si>
+    <t>no - working on selecting photos from antiopi's photoshoot and will add these once done</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Factory Production (AKA laser cutting and pressing)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostly? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">auri has added some - apologies for poor quality of video of laser cutting and pressing steps! If completely unusable, could try to film some more today! Let me know @joe! : ) </t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>DIY (manual creasing)</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Needs update to add the channel creasing methods</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Cardboard and Sandwich Bag Method</t>
   </si>
   <si>
     <t>Laser Cutting - waiting for reply from Tom about fluids through gaps</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory Production </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostly? </t>
-  </si>
-  <si>
-    <t>Main Promo Video</t>
+    <t>no - not great, but some exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -153,30 +166,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,139 +592,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="54.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="2" width="54.7109375" style="2"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="54.7109375" style="2"/>
+    <col min="10" max="10" width="25.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="54.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="60">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="120">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+    <row r="4" spans="1:11">
+      <c r="F4" s="2"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="60.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{B5FCBF12-EAA3-452A-AB56-8BDE6360EFC8}">
+            <xm:f>NOT(ISERROR(SEARCH("no",C3)))</xm:f>
+            <xm:f>"no"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3:K3 H15:K15 C12:G12 C5:K10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{604A5CD8-BD67-4A71-A7C0-67C718E44CEF}">
+            <xm:f>NOT(ISERROR(SEARCH("yes",C3)))</xm:f>
+            <xm:f>"yes"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C3:K3 H15:K15 C12:G12 C5:K10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
